--- a/варианты/простоегэ/3/18.xlsx
+++ b/варианты/простоегэ/3/18.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Арсений\PycharmProjects\leletko1\варианты\простоегэ\3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="4815" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="4815" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -320,7 +315,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -355,7 +350,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -532,7 +527,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -542,13 +537,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AP26" sqref="AP26"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM17" sqref="AM17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1024" width="7.140625" style="1"/>
+    <col min="1" max="20" width="5" style="1" customWidth="1"/>
+    <col min="21" max="1024" width="7.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
@@ -621,7 +617,7 @@
         <v>176</v>
       </c>
       <c r="Y1" s="2">
-        <f t="shared" ref="Y1:AC1" si="0">X1+C1</f>
+        <f t="shared" ref="Y1:AD1" si="0">X1+C1</f>
         <v>242</v>
       </c>
       <c r="Z1" s="2">
@@ -640,7 +636,10 @@
         <f t="shared" si="0"/>
         <v>457</v>
       </c>
-      <c r="AD1" s="2"/>
+      <c r="AD1" s="2">
+        <f t="shared" si="0"/>
+        <v>515</v>
+      </c>
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
       <c r="AG1" s="2"/>
@@ -720,80 +719,80 @@
         <v>116</v>
       </c>
       <c r="X2" s="5">
-        <f t="shared" ref="X2:AP2" si="1">MAX(X1,W2)+B2</f>
+        <f>MIN(X1,W2)+B2</f>
+        <v>136</v>
+      </c>
+      <c r="Y2" s="5">
+        <f>MIN(Y1,X2)+C2</f>
         <v>196</v>
       </c>
-      <c r="Y2" s="5">
-        <f t="shared" si="1"/>
-        <v>302</v>
-      </c>
       <c r="Z2" s="5">
-        <f t="shared" si="1"/>
-        <v>376</v>
+        <f>MIN(Z1,Y2)+D2</f>
+        <v>270</v>
       </c>
       <c r="AA2" s="5">
-        <f t="shared" si="1"/>
-        <v>443</v>
+        <f>MIN(AA1,Z2)+E2</f>
+        <v>337</v>
       </c>
       <c r="AB2" s="5">
-        <f t="shared" si="1"/>
-        <v>501</v>
+        <f>MIN(AB1,AA2)+F2</f>
+        <v>395</v>
       </c>
       <c r="AC2" s="5">
-        <f t="shared" si="1"/>
-        <v>509</v>
+        <f>MIN(AC1,AB2)+G2</f>
+        <v>403</v>
       </c>
       <c r="AD2" s="6">
-        <f>MAX(AD1,AC2)+H2</f>
-        <v>584</v>
+        <f>MIN(AD1,AC2)+H2</f>
+        <v>478</v>
       </c>
       <c r="AE2" s="5">
-        <f t="shared" si="1"/>
-        <v>628</v>
+        <f>MIN(AE1,AD2)+I2</f>
+        <v>522</v>
       </c>
       <c r="AF2" s="5">
-        <f t="shared" si="1"/>
-        <v>640</v>
+        <f>MIN(AF1,AE2)+J2</f>
+        <v>534</v>
       </c>
       <c r="AG2" s="5">
-        <f t="shared" si="1"/>
-        <v>655</v>
+        <f>MIN(AG1,AF2)+K2</f>
+        <v>549</v>
       </c>
       <c r="AH2" s="5">
-        <f t="shared" si="1"/>
-        <v>667</v>
+        <f>MIN(AH1,AG2)+L2</f>
+        <v>561</v>
       </c>
       <c r="AI2" s="5">
-        <f t="shared" si="1"/>
+        <f>MIN(AI1,AH2)+M2</f>
+        <v>594</v>
+      </c>
+      <c r="AJ2" s="5">
+        <f>MIN(AJ1,AI2)+N2</f>
+        <v>633</v>
+      </c>
+      <c r="AK2" s="5">
+        <f>MIN(AK1,AJ2)+O2</f>
         <v>700</v>
       </c>
-      <c r="AJ2" s="5">
-        <f t="shared" si="1"/>
-        <v>739</v>
-      </c>
-      <c r="AK2" s="5">
-        <f t="shared" si="1"/>
+      <c r="AL2" s="5">
+        <f>MIN(AL1,AK2)+P2</f>
+        <v>735</v>
+      </c>
+      <c r="AM2" s="5">
+        <f>MIN(AM1,AL2)+Q2</f>
         <v>806</v>
       </c>
-      <c r="AL2" s="5">
-        <f t="shared" si="1"/>
-        <v>841</v>
-      </c>
-      <c r="AM2" s="5">
-        <f t="shared" si="1"/>
-        <v>912</v>
-      </c>
       <c r="AN2" s="5">
-        <f t="shared" si="1"/>
-        <v>926</v>
+        <f>MIN(AN1,AM2)+R2</f>
+        <v>820</v>
       </c>
       <c r="AO2" s="5">
-        <f t="shared" si="1"/>
-        <v>995</v>
+        <f>MIN(AO1,AN2)+S2</f>
+        <v>889</v>
       </c>
       <c r="AP2" s="7">
-        <f t="shared" si="1"/>
-        <v>1007</v>
+        <f>MIN(AP1,AO2)+T2</f>
+        <v>901</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
@@ -863,53 +862,32 @@
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5">
-        <f t="shared" ref="AD3:AL9" si="2">MAX(AD2,AC3)+H3</f>
-        <v>642</v>
+        <f>MIN(AD2,AC3)+H3</f>
+        <v>536</v>
       </c>
       <c r="AE3" s="5">
-        <f t="shared" si="2"/>
-        <v>717</v>
-      </c>
-      <c r="AF3" s="5">
-        <f t="shared" si="2"/>
-        <v>793</v>
-      </c>
-      <c r="AG3" s="5">
-        <f t="shared" si="2"/>
-        <v>823</v>
-      </c>
-      <c r="AH3" s="5">
-        <f t="shared" si="2"/>
-        <v>896</v>
-      </c>
-      <c r="AI3" s="5">
-        <f t="shared" si="2"/>
-        <v>904</v>
-      </c>
-      <c r="AJ3" s="5">
-        <f t="shared" si="2"/>
-        <v>995</v>
-      </c>
-      <c r="AK3" s="5">
-        <f t="shared" si="2"/>
-        <v>1073</v>
-      </c>
-      <c r="AL3" s="5">
-        <f t="shared" si="2"/>
-        <v>1154</v>
-      </c>
+        <f>MIN(AE2,AD3)+I3</f>
+        <v>597</v>
+      </c>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
       <c r="AM3" s="8"/>
       <c r="AN3" s="5">
-        <f t="shared" ref="AN3:AP5" si="3">MAX(AN2,AM3)+R3</f>
-        <v>1001</v>
+        <f>MIN(AN2,AM3)+R3</f>
+        <v>895</v>
       </c>
       <c r="AO3" s="5">
-        <f t="shared" si="3"/>
-        <v>1026</v>
+        <f>MIN(AO2,AN3)+S3</f>
+        <v>914</v>
       </c>
       <c r="AP3" s="7">
-        <f t="shared" si="3"/>
-        <v>1043</v>
+        <f>MIN(AP2,AO3)+T3</f>
+        <v>918</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
@@ -979,53 +957,32 @@
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5">
-        <f t="shared" si="2"/>
-        <v>653</v>
+        <f>MIN(AD3,AC4)+H4</f>
+        <v>547</v>
       </c>
       <c r="AE4" s="5">
-        <f t="shared" si="2"/>
-        <v>776</v>
-      </c>
-      <c r="AF4" s="5">
-        <f t="shared" si="2"/>
-        <v>818</v>
-      </c>
-      <c r="AG4" s="5">
-        <f t="shared" si="2"/>
-        <v>903</v>
-      </c>
-      <c r="AH4" s="5">
-        <f t="shared" si="2"/>
-        <v>939</v>
-      </c>
-      <c r="AI4" s="5">
-        <f t="shared" si="2"/>
-        <v>950</v>
-      </c>
-      <c r="AJ4" s="5">
-        <f t="shared" si="2"/>
-        <v>1056</v>
-      </c>
-      <c r="AK4" s="5">
-        <f t="shared" si="2"/>
-        <v>1149</v>
-      </c>
-      <c r="AL4" s="5">
-        <f t="shared" si="2"/>
-        <v>1204</v>
-      </c>
+        <f>MIN(AE3,AD4)+I4</f>
+        <v>606</v>
+      </c>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
       <c r="AM4" s="8"/>
       <c r="AN4" s="5">
-        <f t="shared" si="3"/>
-        <v>1075</v>
+        <f>MIN(AN3,AM4)+R4</f>
+        <v>969</v>
       </c>
       <c r="AO4" s="5">
-        <f t="shared" si="3"/>
-        <v>1086</v>
+        <f>MIN(AO3,AN4)+S4</f>
+        <v>925</v>
       </c>
       <c r="AP4" s="7">
-        <f t="shared" si="3"/>
-        <v>1099</v>
+        <f>MIN(AP3,AO4)+T4</f>
+        <v>931</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
@@ -1095,53 +1052,32 @@
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5">
-        <f t="shared" si="2"/>
-        <v>698</v>
+        <f>MIN(AD4,AC5)+H5</f>
+        <v>592</v>
       </c>
       <c r="AE5" s="5">
-        <f t="shared" si="2"/>
-        <v>842</v>
-      </c>
-      <c r="AF5" s="5">
-        <f t="shared" si="2"/>
-        <v>887</v>
-      </c>
-      <c r="AG5" s="5">
-        <f t="shared" si="2"/>
-        <v>942</v>
-      </c>
-      <c r="AH5" s="5">
-        <f t="shared" si="2"/>
-        <v>993</v>
-      </c>
-      <c r="AI5" s="5">
-        <f t="shared" si="2"/>
-        <v>1045</v>
-      </c>
-      <c r="AJ5" s="5">
-        <f t="shared" si="2"/>
-        <v>1125</v>
-      </c>
-      <c r="AK5" s="5">
-        <f t="shared" si="2"/>
-        <v>1210</v>
-      </c>
-      <c r="AL5" s="5">
-        <f t="shared" si="2"/>
-        <v>1247</v>
-      </c>
+        <f>MIN(AE4,AD5)+I5</f>
+        <v>658</v>
+      </c>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
       <c r="AM5" s="8"/>
       <c r="AN5" s="5">
-        <f t="shared" si="3"/>
-        <v>1139</v>
+        <f>MIN(AN4,AM5)+R5</f>
+        <v>1033</v>
       </c>
       <c r="AO5" s="5">
-        <f t="shared" si="3"/>
-        <v>1167</v>
+        <f>MIN(AO4,AN5)+S5</f>
+        <v>953</v>
       </c>
       <c r="AP5" s="7">
-        <f t="shared" si="3"/>
-        <v>1191</v>
+        <f>MIN(AP4,AO5)+T5</f>
+        <v>955</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
@@ -1211,50 +1147,32 @@
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5">
-        <f t="shared" si="2"/>
-        <v>711</v>
+        <f>MIN(AD5,AC6)+H6</f>
+        <v>605</v>
       </c>
       <c r="AE6" s="5">
-        <f t="shared" si="2"/>
-        <v>855</v>
-      </c>
-      <c r="AF6" s="5">
-        <f t="shared" si="2"/>
-        <v>895</v>
-      </c>
-      <c r="AG6" s="5">
-        <f t="shared" si="2"/>
-        <v>951</v>
-      </c>
-      <c r="AH6" s="5">
-        <f t="shared" si="2"/>
-        <v>1012</v>
-      </c>
-      <c r="AI6" s="5">
-        <f t="shared" si="2"/>
-        <v>1063</v>
-      </c>
-      <c r="AJ6" s="5">
-        <f t="shared" si="2"/>
-        <v>1192</v>
-      </c>
-      <c r="AK6" s="5">
-        <f t="shared" si="2"/>
-        <v>1256</v>
-      </c>
-      <c r="AL6" s="5">
-        <f t="shared" si="2"/>
-        <v>1306</v>
-      </c>
+        <f>MIN(AE5,AD6)+I6</f>
+        <v>618</v>
+      </c>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
       <c r="AM6" s="8"/>
       <c r="AN6" s="5">
-        <f t="shared" ref="AN6:AN20" si="4">MAX(AN5,AM6)+R6</f>
-        <v>1180</v>
-      </c>
-      <c r="AO6" s="5"/>
+        <f>MIN(AN5,AM6)+R6</f>
+        <v>1074</v>
+      </c>
+      <c r="AO6" s="5">
+        <f>MIN(AO5,AN6)+S6</f>
+        <v>990</v>
+      </c>
       <c r="AP6" s="7">
-        <f t="shared" ref="AP6:AP20" si="5">MAX(AP5,AO6)+T6</f>
-        <v>1203</v>
+        <f>MIN(AP5,AO6)+T6</f>
+        <v>967</v>
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
@@ -1324,53 +1242,32 @@
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5">
-        <f t="shared" si="2"/>
-        <v>729</v>
+        <f>MIN(AD6,AC7)+H7</f>
+        <v>623</v>
       </c>
       <c r="AE7" s="5">
-        <f t="shared" si="2"/>
-        <v>869</v>
-      </c>
-      <c r="AF7" s="5">
-        <f t="shared" si="2"/>
-        <v>903</v>
-      </c>
-      <c r="AG7" s="5">
-        <f t="shared" si="2"/>
-        <v>970</v>
-      </c>
-      <c r="AH7" s="5">
-        <f t="shared" si="2"/>
-        <v>1020</v>
-      </c>
-      <c r="AI7" s="5">
-        <f t="shared" si="2"/>
-        <v>1071</v>
-      </c>
-      <c r="AJ7" s="5">
-        <f t="shared" si="2"/>
-        <v>1232</v>
-      </c>
-      <c r="AK7" s="5">
-        <f t="shared" si="2"/>
-        <v>1315</v>
-      </c>
-      <c r="AL7" s="5">
-        <f t="shared" si="2"/>
-        <v>1396</v>
-      </c>
+        <f>MIN(AE6,AD7)+I7</f>
+        <v>632</v>
+      </c>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
       <c r="AM7" s="8"/>
       <c r="AN7" s="5">
-        <f t="shared" si="4"/>
-        <v>1221</v>
+        <f>MIN(AN6,AM7)+R7</f>
+        <v>1115</v>
       </c>
       <c r="AO7" s="5">
-        <f t="shared" ref="AO7:AO20" si="6">MAX(AO6,AN7)+S7</f>
-        <v>1242</v>
+        <f>MIN(AO6,AN7)+S7</f>
+        <v>1011</v>
       </c>
       <c r="AP7" s="7">
-        <f t="shared" si="5"/>
-        <v>1260</v>
+        <f>MIN(AP6,AO7)+T7</f>
+        <v>985</v>
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
@@ -1440,53 +1337,32 @@
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5">
-        <f t="shared" si="2"/>
-        <v>737</v>
+        <f>MIN(AD7,AC8)+H8</f>
+        <v>631</v>
       </c>
       <c r="AE8" s="5">
-        <f t="shared" si="2"/>
-        <v>883</v>
-      </c>
-      <c r="AF8" s="5">
-        <f t="shared" si="2"/>
-        <v>915</v>
-      </c>
-      <c r="AG8" s="5">
-        <f t="shared" si="2"/>
-        <v>979</v>
-      </c>
-      <c r="AH8" s="5">
-        <f t="shared" si="2"/>
-        <v>1027</v>
-      </c>
-      <c r="AI8" s="5">
-        <f t="shared" si="2"/>
-        <v>1080</v>
-      </c>
-      <c r="AJ8" s="5">
-        <f t="shared" si="2"/>
-        <v>1302</v>
-      </c>
-      <c r="AK8" s="5">
-        <f t="shared" si="2"/>
-        <v>1371</v>
-      </c>
-      <c r="AL8" s="5">
-        <f t="shared" si="2"/>
-        <v>1446</v>
-      </c>
+        <f>MIN(AE7,AD8)+I8</f>
+        <v>645</v>
+      </c>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
       <c r="AM8" s="8"/>
       <c r="AN8" s="5">
-        <f t="shared" si="4"/>
-        <v>1282</v>
+        <f>MIN(AN7,AM8)+R8</f>
+        <v>1176</v>
       </c>
       <c r="AO8" s="5">
-        <f t="shared" si="6"/>
-        <v>1327</v>
+        <f>MIN(AO7,AN8)+S8</f>
+        <v>1056</v>
       </c>
       <c r="AP8" s="7">
-        <f t="shared" si="5"/>
-        <v>1338</v>
+        <f>MIN(AP7,AO8)+T8</f>
+        <v>996</v>
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
@@ -1556,53 +1432,32 @@
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5">
-        <f t="shared" si="2"/>
-        <v>742</v>
+        <f>MIN(AD8,AC9)+H9</f>
+        <v>636</v>
       </c>
       <c r="AE9" s="5">
-        <f t="shared" si="2"/>
-        <v>896</v>
-      </c>
-      <c r="AF9" s="5">
-        <f t="shared" si="2"/>
-        <v>934</v>
-      </c>
-      <c r="AG9" s="5">
-        <f t="shared" si="2"/>
-        <v>992</v>
-      </c>
-      <c r="AH9" s="5">
-        <f t="shared" si="2"/>
-        <v>1047</v>
-      </c>
-      <c r="AI9" s="5">
-        <f t="shared" si="2"/>
-        <v>1091</v>
-      </c>
-      <c r="AJ9" s="5">
-        <f t="shared" si="2"/>
-        <v>1341</v>
-      </c>
-      <c r="AK9" s="5">
-        <f t="shared" si="2"/>
-        <v>1431</v>
-      </c>
-      <c r="AL9" s="5">
-        <f t="shared" si="2"/>
-        <v>1508</v>
-      </c>
+        <f>MIN(AE8,AD9)+I9</f>
+        <v>649</v>
+      </c>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
       <c r="AM9" s="8"/>
       <c r="AN9" s="5">
-        <f t="shared" si="4"/>
-        <v>1353</v>
+        <f>MIN(AN8,AM9)+R9</f>
+        <v>1247</v>
       </c>
       <c r="AO9" s="5">
-        <f t="shared" si="6"/>
-        <v>1367</v>
+        <f>MIN(AO8,AN9)+S9</f>
+        <v>1070</v>
       </c>
       <c r="AP9" s="7">
-        <f t="shared" si="5"/>
-        <v>1375</v>
+        <f>MIN(AP8,AO9)+T9</f>
+        <v>1004</v>
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
@@ -1664,41 +1519,32 @@
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5">
-        <f t="shared" ref="AD10:AH16" si="7">MAX(AD9,AC10)+H10</f>
-        <v>755</v>
+        <f>MIN(AD9,AC10)+H10</f>
+        <v>649</v>
       </c>
       <c r="AE10" s="5">
-        <f t="shared" si="7"/>
-        <v>915</v>
-      </c>
-      <c r="AF10" s="5">
-        <f t="shared" si="7"/>
-        <v>946</v>
-      </c>
-      <c r="AG10" s="5">
-        <f t="shared" si="7"/>
-        <v>1001</v>
-      </c>
-      <c r="AH10" s="5">
-        <f t="shared" si="7"/>
-        <v>1055</v>
-      </c>
+        <f>MIN(AE9,AD10)+I10</f>
+        <v>668</v>
+      </c>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
       <c r="AI10" s="8"/>
       <c r="AJ10" s="8"/>
       <c r="AK10" s="8"/>
       <c r="AL10" s="8"/>
       <c r="AM10" s="8"/>
       <c r="AN10" s="5">
-        <f t="shared" si="4"/>
-        <v>1431</v>
+        <f>MIN(AN9,AM10)+R10</f>
+        <v>1325</v>
       </c>
       <c r="AO10" s="5">
-        <f t="shared" si="6"/>
-        <v>1479</v>
+        <f>MIN(AO9,AN10)+S10</f>
+        <v>1118</v>
       </c>
       <c r="AP10" s="7">
-        <f t="shared" si="5"/>
-        <v>1500</v>
+        <f>MIN(AP9,AO10)+T10</f>
+        <v>1025</v>
       </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
@@ -1768,41 +1614,32 @@
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5">
-        <f t="shared" si="7"/>
-        <v>761</v>
+        <f>MIN(AD10,AC11)+H11</f>
+        <v>655</v>
       </c>
       <c r="AE11" s="5">
-        <f t="shared" si="7"/>
-        <v>924</v>
-      </c>
-      <c r="AF11" s="5">
-        <f t="shared" si="7"/>
-        <v>957</v>
-      </c>
-      <c r="AG11" s="5">
-        <f t="shared" si="7"/>
-        <v>1019</v>
-      </c>
-      <c r="AH11" s="5">
-        <f t="shared" si="7"/>
-        <v>1075</v>
-      </c>
+        <f>MIN(AE10,AD11)+I11</f>
+        <v>664</v>
+      </c>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
       <c r="AI11" s="8"/>
       <c r="AJ11" s="5"/>
       <c r="AK11" s="5"/>
       <c r="AL11" s="5"/>
       <c r="AM11" s="5"/>
       <c r="AN11" s="5">
-        <f t="shared" si="4"/>
-        <v>1448</v>
+        <f>MIN(AN10,AM11)+R11</f>
+        <v>1342</v>
       </c>
       <c r="AO11" s="5">
-        <f t="shared" si="6"/>
-        <v>1542</v>
+        <f>MIN(AO10,AN11)+S11</f>
+        <v>1181</v>
       </c>
       <c r="AP11" s="7">
-        <f t="shared" si="5"/>
-        <v>1556</v>
+        <f>MIN(AP10,AO11)+T11</f>
+        <v>1039</v>
       </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
@@ -1870,41 +1707,32 @@
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5">
-        <f t="shared" si="7"/>
-        <v>776</v>
+        <f>MIN(AD11,AC12)+H12</f>
+        <v>670</v>
       </c>
       <c r="AE12" s="5">
-        <f t="shared" si="7"/>
-        <v>938</v>
-      </c>
-      <c r="AF12" s="5">
-        <f t="shared" si="7"/>
-        <v>963</v>
-      </c>
-      <c r="AG12" s="5">
-        <f t="shared" si="7"/>
-        <v>1036</v>
-      </c>
-      <c r="AH12" s="5">
-        <f t="shared" si="7"/>
-        <v>1090</v>
-      </c>
+        <f>MIN(AE11,AD12)+I12</f>
+        <v>678</v>
+      </c>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
       <c r="AI12" s="8"/>
       <c r="AJ12" s="5"/>
       <c r="AK12" s="5"/>
       <c r="AL12" s="5"/>
       <c r="AM12" s="5"/>
       <c r="AN12" s="5">
-        <f t="shared" si="4"/>
-        <v>1474</v>
+        <f>MIN(AN11,AM12)+R12</f>
+        <v>1368</v>
       </c>
       <c r="AO12" s="5">
-        <f t="shared" si="6"/>
-        <v>1583</v>
+        <f>MIN(AO11,AN12)+S12</f>
+        <v>1222</v>
       </c>
       <c r="AP12" s="7">
-        <f t="shared" si="5"/>
-        <v>1608</v>
+        <f>MIN(AP11,AO12)+T12</f>
+        <v>1064</v>
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
@@ -1972,41 +1800,32 @@
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5">
-        <f t="shared" si="7"/>
-        <v>783</v>
+        <f>MIN(AD12,AC13)+H13</f>
+        <v>677</v>
       </c>
       <c r="AE13" s="5">
-        <f t="shared" si="7"/>
-        <v>956</v>
-      </c>
-      <c r="AF13" s="5">
-        <f t="shared" si="7"/>
-        <v>968</v>
-      </c>
-      <c r="AG13" s="5">
-        <f t="shared" si="7"/>
-        <v>1046</v>
-      </c>
-      <c r="AH13" s="5">
-        <f t="shared" si="7"/>
-        <v>1106</v>
-      </c>
+        <f>MIN(AE12,AD13)+I13</f>
+        <v>695</v>
+      </c>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
       <c r="AI13" s="8"/>
       <c r="AJ13" s="5"/>
       <c r="AK13" s="5"/>
       <c r="AL13" s="5"/>
       <c r="AM13" s="5"/>
       <c r="AN13" s="5">
-        <f t="shared" si="4"/>
-        <v>1539</v>
+        <f>MIN(AN12,AM13)+R13</f>
+        <v>1433</v>
       </c>
       <c r="AO13" s="5">
-        <f t="shared" si="6"/>
-        <v>1624</v>
+        <f>MIN(AO12,AN13)+S13</f>
+        <v>1263</v>
       </c>
       <c r="AP13" s="7">
-        <f t="shared" si="5"/>
-        <v>1647</v>
+        <f>MIN(AP12,AO13)+T13</f>
+        <v>1087</v>
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
@@ -2074,41 +1893,32 @@
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5">
-        <f t="shared" si="7"/>
-        <v>845</v>
+        <f>MIN(AD13,AC14)+H14</f>
+        <v>739</v>
       </c>
       <c r="AE14" s="5">
-        <f t="shared" si="7"/>
-        <v>971</v>
-      </c>
-      <c r="AF14" s="5">
-        <f t="shared" si="7"/>
-        <v>1002</v>
-      </c>
-      <c r="AG14" s="5">
-        <f t="shared" si="7"/>
-        <v>1108</v>
-      </c>
-      <c r="AH14" s="5">
-        <f t="shared" si="7"/>
-        <v>1150</v>
-      </c>
+        <f>MIN(AE13,AD14)+I14</f>
+        <v>710</v>
+      </c>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
       <c r="AI14" s="8"/>
       <c r="AJ14" s="5"/>
       <c r="AK14" s="5"/>
       <c r="AL14" s="5"/>
       <c r="AM14" s="5"/>
       <c r="AN14" s="5">
-        <f t="shared" si="4"/>
-        <v>1557</v>
+        <f>MIN(AN13,AM14)+R14</f>
+        <v>1451</v>
       </c>
       <c r="AO14" s="5">
-        <f t="shared" si="6"/>
-        <v>1688</v>
+        <f>MIN(AO13,AN14)+S14</f>
+        <v>1327</v>
       </c>
       <c r="AP14" s="7">
-        <f t="shared" si="5"/>
-        <v>1704</v>
+        <f>MIN(AP13,AO14)+T14</f>
+        <v>1103</v>
       </c>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
@@ -2176,41 +1986,32 @@
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5">
-        <f t="shared" si="7"/>
-        <v>867</v>
+        <f>MIN(AD14,AC15)+H15</f>
+        <v>761</v>
       </c>
       <c r="AE15" s="5">
-        <f t="shared" si="7"/>
-        <v>1048</v>
-      </c>
-      <c r="AF15" s="5">
-        <f t="shared" si="7"/>
-        <v>1100</v>
-      </c>
-      <c r="AG15" s="5">
-        <f t="shared" si="7"/>
-        <v>1152</v>
-      </c>
-      <c r="AH15" s="5">
-        <f t="shared" si="7"/>
-        <v>1217</v>
-      </c>
+        <f>MIN(AE14,AD15)+I15</f>
+        <v>787</v>
+      </c>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
       <c r="AI15" s="8"/>
       <c r="AJ15" s="5"/>
       <c r="AK15" s="5"/>
       <c r="AL15" s="5"/>
       <c r="AM15" s="5"/>
       <c r="AN15" s="5">
-        <f t="shared" si="4"/>
-        <v>1613</v>
+        <f>MIN(AN14,AM15)+R15</f>
+        <v>1507</v>
       </c>
       <c r="AO15" s="5">
-        <f t="shared" si="6"/>
-        <v>1716</v>
+        <f>MIN(AO14,AN15)+S15</f>
+        <v>1355</v>
       </c>
       <c r="AP15" s="7">
-        <f t="shared" si="5"/>
-        <v>1733</v>
+        <f>MIN(AP14,AO15)+T15</f>
+        <v>1120</v>
       </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
@@ -2278,41 +2079,32 @@
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5">
-        <f t="shared" si="7"/>
-        <v>931</v>
+        <f>MIN(AD15,AC16)+H16</f>
+        <v>825</v>
       </c>
       <c r="AE16" s="5">
-        <f t="shared" si="7"/>
-        <v>1084</v>
-      </c>
-      <c r="AF16" s="5">
-        <f t="shared" si="7"/>
-        <v>1125</v>
-      </c>
-      <c r="AG16" s="5">
-        <f t="shared" si="7"/>
-        <v>1205</v>
-      </c>
-      <c r="AH16" s="5">
-        <f t="shared" si="7"/>
-        <v>1273</v>
-      </c>
+        <f>MIN(AE15,AD16)+I16</f>
+        <v>823</v>
+      </c>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
       <c r="AI16" s="8"/>
       <c r="AJ16" s="5"/>
       <c r="AK16" s="5"/>
       <c r="AL16" s="5"/>
       <c r="AM16" s="5"/>
       <c r="AN16" s="5">
-        <f t="shared" si="4"/>
-        <v>1657</v>
+        <f>MIN(AN15,AM16)+R16</f>
+        <v>1551</v>
       </c>
       <c r="AO16" s="5">
-        <f t="shared" si="6"/>
-        <v>1758</v>
+        <f>MIN(AO15,AN16)+S16</f>
+        <v>1397</v>
       </c>
       <c r="AP16" s="7">
-        <f t="shared" si="5"/>
-        <v>1779</v>
+        <f>MIN(AP15,AO16)+T16</f>
+        <v>1141</v>
       </c>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.25">
@@ -2368,12 +2160,12 @@
       <c r="AB17" s="8"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="5">
-        <f t="shared" ref="AD17:AE20" si="8">MAX(AD16,AC17)+H17</f>
-        <v>972</v>
+        <f>MIN(AD16,AC17)+H17</f>
+        <v>866</v>
       </c>
       <c r="AE17" s="5">
-        <f t="shared" si="8"/>
-        <v>1146</v>
+        <f>MIN(AE16,AD17)+I17</f>
+        <v>885</v>
       </c>
       <c r="AF17" s="8"/>
       <c r="AG17" s="8"/>
@@ -2384,16 +2176,16 @@
       <c r="AL17" s="5"/>
       <c r="AM17" s="5"/>
       <c r="AN17" s="5">
-        <f t="shared" si="4"/>
-        <v>1680</v>
+        <f>MIN(AN16,AM17)+R17</f>
+        <v>1574</v>
       </c>
       <c r="AO17" s="5">
-        <f t="shared" si="6"/>
-        <v>1792</v>
+        <f>MIN(AO16,AN17)+S17</f>
+        <v>1431</v>
       </c>
       <c r="AP17" s="7">
-        <f t="shared" si="5"/>
-        <v>1799</v>
+        <f>MIN(AP16,AO17)+T17</f>
+        <v>1148</v>
       </c>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.25">
@@ -2465,56 +2257,56 @@
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
       <c r="AD18" s="5">
-        <f t="shared" si="8"/>
-        <v>1017</v>
+        <f>MIN(AD17,AC18)+H18</f>
+        <v>911</v>
       </c>
       <c r="AE18" s="5">
-        <f t="shared" si="8"/>
-        <v>1194</v>
+        <f>MIN(AE17,AD18)+I18</f>
+        <v>933</v>
       </c>
       <c r="AF18" s="5">
-        <f t="shared" ref="AF18:AM20" si="9">MAX(AF17,AE18)+J18</f>
-        <v>1248</v>
+        <f>MIN(AF17,AE18)+J18</f>
+        <v>987</v>
       </c>
       <c r="AG18" s="5">
-        <f t="shared" si="9"/>
-        <v>1321</v>
+        <f>MIN(AG17,AF18)+K18</f>
+        <v>1060</v>
       </c>
       <c r="AH18" s="5">
-        <f t="shared" si="9"/>
-        <v>1384</v>
+        <f>MIN(AH17,AG18)+L18</f>
+        <v>1123</v>
       </c>
       <c r="AI18" s="5">
-        <f t="shared" si="9"/>
-        <v>1448</v>
+        <f>MIN(AI17,AH18)+M18</f>
+        <v>1187</v>
       </c>
       <c r="AJ18" s="5">
-        <f t="shared" si="9"/>
-        <v>1514</v>
+        <f>MIN(AJ17,AI18)+N18</f>
+        <v>1253</v>
       </c>
       <c r="AK18" s="5">
-        <f t="shared" si="9"/>
-        <v>1576</v>
+        <f>MIN(AK17,AJ18)+O18</f>
+        <v>1315</v>
       </c>
       <c r="AL18" s="5">
-        <f t="shared" si="9"/>
-        <v>1608</v>
+        <f>MIN(AL17,AK18)+P18</f>
+        <v>1347</v>
       </c>
       <c r="AM18" s="5">
-        <f t="shared" si="9"/>
-        <v>1617</v>
+        <f>MIN(AM17,AL18)+Q18</f>
+        <v>1356</v>
       </c>
       <c r="AN18" s="5">
-        <f t="shared" si="4"/>
-        <v>1757</v>
+        <f>MIN(AN17,AM18)+R18</f>
+        <v>1433</v>
       </c>
       <c r="AO18" s="5">
-        <f t="shared" si="6"/>
-        <v>1852</v>
+        <f>MIN(AO17,AN18)+S18</f>
+        <v>1491</v>
       </c>
       <c r="AP18" s="7">
-        <f t="shared" si="5"/>
-        <v>1923</v>
+        <f>MIN(AP17,AO18)+T18</f>
+        <v>1219</v>
       </c>
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.25">
@@ -2586,56 +2378,56 @@
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5">
-        <f t="shared" si="8"/>
-        <v>1095</v>
+        <f>MIN(AD18,AC19)+H19</f>
+        <v>989</v>
       </c>
       <c r="AE19" s="5">
-        <f t="shared" si="8"/>
-        <v>1210</v>
+        <f>MIN(AE18,AD19)+I19</f>
+        <v>949</v>
       </c>
       <c r="AF19" s="5">
-        <f t="shared" si="9"/>
-        <v>1324</v>
+        <f>MIN(AF18,AE19)+J19</f>
+        <v>1025</v>
       </c>
       <c r="AG19" s="5">
-        <f t="shared" si="9"/>
-        <v>1360</v>
+        <f>MIN(AG18,AF19)+K19</f>
+        <v>1061</v>
       </c>
       <c r="AH19" s="5">
-        <f t="shared" si="9"/>
-        <v>1401</v>
+        <f>MIN(AH18,AG19)+L19</f>
+        <v>1078</v>
       </c>
       <c r="AI19" s="5">
-        <f t="shared" si="9"/>
-        <v>1464</v>
+        <f>MIN(AI18,AH19)+M19</f>
+        <v>1094</v>
       </c>
       <c r="AJ19" s="5">
-        <f t="shared" si="9"/>
-        <v>1533</v>
+        <f>MIN(AJ18,AI19)+N19</f>
+        <v>1113</v>
       </c>
       <c r="AK19" s="5">
-        <f t="shared" si="9"/>
-        <v>1589</v>
+        <f>MIN(AK18,AJ19)+O19</f>
+        <v>1126</v>
       </c>
       <c r="AL19" s="5">
-        <f t="shared" si="9"/>
-        <v>1641</v>
+        <f>MIN(AL18,AK19)+P19</f>
+        <v>1159</v>
       </c>
       <c r="AM19" s="5">
-        <f t="shared" si="9"/>
-        <v>1661</v>
+        <f>MIN(AM18,AL19)+Q19</f>
+        <v>1179</v>
       </c>
       <c r="AN19" s="5">
-        <f t="shared" si="4"/>
-        <v>1773</v>
+        <f>MIN(AN18,AM19)+R19</f>
+        <v>1195</v>
       </c>
       <c r="AO19" s="5">
-        <f t="shared" si="6"/>
-        <v>1889</v>
+        <f>MIN(AO18,AN19)+S19</f>
+        <v>1232</v>
       </c>
       <c r="AP19" s="7">
-        <f t="shared" si="5"/>
-        <v>1961</v>
+        <f>MIN(AP18,AO19)+T19</f>
+        <v>1257</v>
       </c>
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.25">
@@ -2707,56 +2499,56 @@
       <c r="AB20" s="10"/>
       <c r="AC20" s="10"/>
       <c r="AD20" s="10">
-        <f t="shared" si="8"/>
-        <v>1168</v>
+        <f>MIN(AD19,AC20)+H20</f>
+        <v>1062</v>
       </c>
       <c r="AE20" s="10">
-        <f t="shared" si="8"/>
+        <f>MIN(AE19,AD20)+I20</f>
+        <v>1003</v>
+      </c>
+      <c r="AF20" s="10">
+        <f>MIN(AF19,AE20)+J20</f>
+        <v>1033</v>
+      </c>
+      <c r="AG20" s="10">
+        <f>MIN(AG19,AF20)+K20</f>
+        <v>1077</v>
+      </c>
+      <c r="AH20" s="10">
+        <f>MIN(AH19,AG20)+L20</f>
+        <v>1121</v>
+      </c>
+      <c r="AI20" s="10">
+        <f>MIN(AI19,AH20)+M20</f>
+        <v>1143</v>
+      </c>
+      <c r="AJ20" s="10">
+        <f>MIN(AJ19,AI20)+N20</f>
+        <v>1125</v>
+      </c>
+      <c r="AK20" s="10">
+        <f>MIN(AK19,AJ20)+O20</f>
+        <v>1161</v>
+      </c>
+      <c r="AL20" s="10">
+        <f>MIN(AL19,AK20)+P20</f>
+        <v>1230</v>
+      </c>
+      <c r="AM20" s="10">
+        <f>MIN(AM19,AL20)+Q20</f>
+        <v>1249</v>
+      </c>
+      <c r="AN20" s="10">
+        <f>MIN(AN19,AM20)+R20</f>
+        <v>1251</v>
+      </c>
+      <c r="AO20" s="10">
+        <f>MIN(AO19,AN20)+S20</f>
+        <v>1250</v>
+      </c>
+      <c r="AP20" s="12">
+        <f>MIN(AP19,AO20)+T20</f>
         <v>1264</v>
-      </c>
-      <c r="AF20" s="10">
-        <f t="shared" si="9"/>
-        <v>1354</v>
-      </c>
-      <c r="AG20" s="10">
-        <f t="shared" si="9"/>
-        <v>1404</v>
-      </c>
-      <c r="AH20" s="10">
-        <f t="shared" si="9"/>
-        <v>1448</v>
-      </c>
-      <c r="AI20" s="10">
-        <f t="shared" si="9"/>
-        <v>1513</v>
-      </c>
-      <c r="AJ20" s="10">
-        <f t="shared" si="9"/>
-        <v>1545</v>
-      </c>
-      <c r="AK20" s="10">
-        <f t="shared" si="9"/>
-        <v>1625</v>
-      </c>
-      <c r="AL20" s="10">
-        <f t="shared" si="9"/>
-        <v>1712</v>
-      </c>
-      <c r="AM20" s="10">
-        <f t="shared" si="9"/>
-        <v>1782</v>
-      </c>
-      <c r="AN20" s="10">
-        <f t="shared" si="4"/>
-        <v>1838</v>
-      </c>
-      <c r="AO20" s="10">
-        <f t="shared" si="6"/>
-        <v>1907</v>
-      </c>
-      <c r="AP20" s="12">
-        <f t="shared" si="5"/>
-        <v>1975</v>
       </c>
     </row>
   </sheetData>
